--- a/result_perfile.xlsx
+++ b/result_perfile.xlsx
@@ -151,9 +151,6 @@
     <t>For all utilities</t>
   </si>
   <si>
-    <t>Pearson</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -164,6 +161,9 @@
   </si>
   <si>
     <t>&gt;</t>
+  </si>
+  <si>
+    <t>RSQ</t>
   </si>
 </sst>
 </file>
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:O137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="Q12" sqref="Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.65" x14ac:dyDescent="0.3"/>
@@ -1222,7 +1222,7 @@
     <col min="9" max="9" width="12.09765625" customWidth="1"/>
     <col min="10" max="10" width="12.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.796875" customWidth="1"/>
+    <col min="13" max="13" width="18.8984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.2" thickTop="1" x14ac:dyDescent="0.3">
@@ -1246,10 +1246,10 @@
         <v>44</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>45</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1277,11 +1277,11 @@
         <v>0.57619185684188534</v>
       </c>
       <c r="J2" s="8">
-        <f>I2*SQRT($I$6-2)/SQRT(1 - I2^2)</f>
-        <v>8.0688859280267895</v>
+        <f>SQRT(I2)*SQRT($I$6-2)/SQRT(1 - I2)</f>
+        <v>13.345491019917993</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2">
         <f>I7</f>
@@ -1316,12 +1316,12 @@
         <f>RSQ(I70:I87:K70:K74:K77:K78:K80:K84:K87:K89:M70:M72:M75:M75:M77:M84:M86:M95:O70:O74:O77:O78:O80:O84:O87:O91:O96:O101, H70:H87:J70:J74:J77:J78:J80:J84:J87:J89:L70:L72:L75:L75:L77:L84:L86:L95:N70:N74:N77:N78:N80:N84:N87:N91:N96:N101)</f>
         <v>1.1946015536321361E-2</v>
       </c>
-      <c r="J3">
-        <f>I3*SQRT($I$6-2)/SQRT(1 - I3^2)</f>
-        <v>0.13673815439240869</v>
+      <c r="J3" s="8">
+        <f t="shared" ref="J3:J4" si="0">SQRT(I3)*SQRT($I$6-2)/SQRT(1 - I3)</f>
+        <v>1.2585105151067246</v>
       </c>
       <c r="K3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L3">
         <f>I7</f>
@@ -1356,12 +1356,12 @@
         <f>RSQ(I104:I121:K104:K108:K111:K112:K114:K118:K121:K123:M104:M106:M109:M109:M111:M118:M120:M129:O104:O108:O111:O112:O114:O118:O121:O125:O130:O135, H104:H121:J104:J108:J111:J112:J114:J118:J121:J123:L104:L106:L109:L109:L111:L118:L120:L129:N104:N108:N111:N112:N114:N118:N121:N125:N130:N135)</f>
         <v>4.1224956997721149E-2</v>
       </c>
-      <c r="J4">
-        <f>I4*SQRT($I$6-2)/SQRT(1 - I4^2)</f>
-        <v>0.47224265750646011</v>
+      <c r="J4" s="8">
+        <f t="shared" si="0"/>
+        <v>2.3733259786350849</v>
       </c>
       <c r="K4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L4">
         <f>I7</f>
@@ -1369,7 +1369,7 @@
       </c>
       <c r="M4" t="b">
         <f xml:space="preserve"> J4 &gt; L4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -1404,7 +1404,7 @@
         <v>0.39785714285714302</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6">
         <f>COUNTIF(H36:H67:J36:J67:L36:L67:N36:N67, "&gt; 0")</f>
@@ -1425,7 +1425,7 @@
       </c>
       <c r="F7" s="14"/>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7">
         <f>TINV(0.05, $I$6-2)</f>
@@ -1869,35 +1869,35 @@
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="2">
-        <f t="shared" ref="H36:H67" si="0">IF(AND(C2 &gt; 0, C36 &gt; 0), C2, "")</f>
+        <f t="shared" ref="H36:H67" si="1">IF(AND(C2 &gt; 0, C36 &gt; 0), C2, "")</f>
         <v>0.52142857142857102</v>
       </c>
       <c r="I36" s="3">
-        <f t="shared" ref="I36:I67" si="1">IF(AND(C2 &gt; 0, C36 &gt; 0), C36, "")</f>
+        <f t="shared" ref="I36:I67" si="2">IF(AND(C2 &gt; 0, C36 &gt; 0), C36, "")</f>
         <v>1</v>
       </c>
       <c r="J36" s="3">
-        <f t="shared" ref="J36:J67" si="2">IF(AND(D2 &gt; 0, D36 &gt; 0), D2, "")</f>
+        <f t="shared" ref="J36:J67" si="3">IF(AND(D2 &gt; 0, D36 &gt; 0), D2, "")</f>
         <v>0.3</v>
       </c>
       <c r="K36" s="3">
-        <f t="shared" ref="K36:K67" si="3">IF(AND(D2 &gt; 0, D36 &gt; 0), D36, "")</f>
+        <f t="shared" ref="K36:K67" si="4">IF(AND(D2 &gt; 0, D36 &gt; 0), D36, "")</f>
         <v>1</v>
       </c>
       <c r="L36" s="3">
-        <f t="shared" ref="L36:L67" si="4">IF(AND(E2 &gt; 0, E36 &gt; 0), E2, "")</f>
+        <f t="shared" ref="L36:L67" si="5">IF(AND(E2 &gt; 0, E36 &gt; 0), E2, "")</f>
         <v>0.65</v>
       </c>
       <c r="M36" s="3">
-        <f t="shared" ref="M36:M67" si="5">IF(AND(E2 &gt; 0, E36 &gt; 0), E36, "")</f>
+        <f t="shared" ref="M36:M67" si="6">IF(AND(E2 &gt; 0, E36 &gt; 0), E36, "")</f>
         <v>0.94444444444444398</v>
       </c>
       <c r="N36" s="3">
-        <f t="shared" ref="N36:N67" si="6">IF(AND(F2 &gt; 0, F36 &gt; 0), F2, "")</f>
+        <f t="shared" ref="N36:N67" si="7">IF(AND(F2 &gt; 0, F36 &gt; 0), F2, "")</f>
         <v>0.65</v>
       </c>
       <c r="O36" s="13">
-        <f t="shared" ref="O36:O67" si="7">IF(AND(F2 &gt; 0, F36 &gt; 0), F36, "")</f>
+        <f t="shared" ref="O36:O67" si="8">IF(AND(F2 &gt; 0, F36 &gt; 0), F36, "")</f>
         <v>1</v>
       </c>
     </row>
@@ -1920,35 +1920,35 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K37" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L37" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M37" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="N37" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="O37" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -1971,35 +1971,35 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I38" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K38" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L38" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M38" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.51351351351351304</v>
       </c>
       <c r="N38" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="O38" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2020,35 +2020,35 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.53888888888888897</v>
       </c>
       <c r="I39" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K39" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.8</v>
       </c>
       <c r="L39" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M39" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N39" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="O39" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2069,35 +2069,35 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.65</v>
       </c>
       <c r="I40" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K40" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L40" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M40" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N40" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.39785714285714302</v>
       </c>
       <c r="O40" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2116,35 +2116,35 @@
       <c r="F41" s="14"/>
       <c r="G41" s="5"/>
       <c r="H41" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I41" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J41" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K41" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L41" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M41" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N41" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O41" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2161,35 +2161,35 @@
       <c r="F42" s="14"/>
       <c r="G42" s="5"/>
       <c r="H42" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J42" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K42" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L42" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M42" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N42" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O42" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2212,35 +2212,35 @@
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.50384615384615405</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.92857142857142905</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K43" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L43" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M43" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.88888888888888895</v>
       </c>
       <c r="N43" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="O43" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2263,35 +2263,35 @@
       </c>
       <c r="G44" s="5"/>
       <c r="H44" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K44" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L44" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.64999999999999902</v>
       </c>
       <c r="M44" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.98181818181818203</v>
       </c>
       <c r="N44" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.49199999999999999</v>
       </c>
       <c r="O44" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2310,35 +2310,35 @@
       <c r="F45" s="14"/>
       <c r="G45" s="5"/>
       <c r="H45" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.5</v>
       </c>
       <c r="J45" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K45" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L45" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M45" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="N45" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O45" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2361,35 +2361,35 @@
       </c>
       <c r="G46" s="5"/>
       <c r="H46" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K46" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L46" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="M46" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="O46" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2412,35 +2412,35 @@
       </c>
       <c r="G47" s="5"/>
       <c r="H47" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K47" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L47" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M47" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.8125</v>
       </c>
       <c r="N47" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="O47" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2463,35 +2463,35 @@
       </c>
       <c r="G48" s="5"/>
       <c r="H48" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.45</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.88888888888888895</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K48" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L48" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M48" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.75</v>
       </c>
       <c r="N48" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.372</v>
       </c>
       <c r="O48" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.83333333333333304</v>
       </c>
     </row>
@@ -2514,35 +2514,35 @@
       </c>
       <c r="G49" s="5"/>
       <c r="H49" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.486363636363636</v>
       </c>
       <c r="I49" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K49" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L49" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M49" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.77777777777777801</v>
       </c>
       <c r="N49" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="O49" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.85714285714285698</v>
       </c>
     </row>
@@ -2565,35 +2565,35 @@
       </c>
       <c r="G50" s="5"/>
       <c r="H50" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.49166666666666697</v>
       </c>
       <c r="I50" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K50" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L50" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M50" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N50" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="O50" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2610,35 +2610,35 @@
       <c r="F51" s="14"/>
       <c r="G51" s="5"/>
       <c r="H51" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.5</v>
       </c>
       <c r="I51" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J51" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K51" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L51" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M51" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N51" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O51" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2657,35 +2657,35 @@
       <c r="F52" s="14"/>
       <c r="G52" s="5"/>
       <c r="H52" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I52" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J52" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K52" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L52" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M52" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N52" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O52" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2708,35 +2708,35 @@
       </c>
       <c r="G53" s="5"/>
       <c r="H53" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="I53" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K53" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L53" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M53" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.94117647058823495</v>
       </c>
       <c r="N53" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="O53" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2757,35 +2757,35 @@
       </c>
       <c r="G54" s="5"/>
       <c r="H54" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I54" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K54" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L54" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M54" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N54" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="O54" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2806,35 +2806,35 @@
       </c>
       <c r="G55" s="5"/>
       <c r="H55" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I55" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.3</v>
       </c>
       <c r="K55" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="L55" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M55" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N55" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="O55" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2853,35 +2853,35 @@
       </c>
       <c r="G56" s="5"/>
       <c r="H56" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I56" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J56" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K56" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L56" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M56" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N56" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
       <c r="O56" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -2900,35 +2900,35 @@
       </c>
       <c r="G57" s="5"/>
       <c r="H57" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I57" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J57" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K57" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L57" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M57" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N57" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="O57" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.5</v>
       </c>
     </row>
@@ -2945,35 +2945,35 @@
       <c r="F58" s="14"/>
       <c r="G58" s="5"/>
       <c r="H58" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I58" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J58" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K58" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L58" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M58" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.91666666666666696</v>
       </c>
       <c r="N58" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O58" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -2990,35 +2990,35 @@
       <c r="F59" s="14"/>
       <c r="G59" s="5"/>
       <c r="H59" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I59" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J59" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K59" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L59" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M59" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="N59" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O59" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3035,35 +3035,35 @@
       <c r="F60" s="14"/>
       <c r="G60" s="5"/>
       <c r="H60" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I60" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J60" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K60" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L60" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M60" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
       <c r="N60" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O60" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3080,35 +3080,35 @@
       <c r="F61" s="14"/>
       <c r="G61" s="5"/>
       <c r="H61" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I61" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J61" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K61" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L61" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.65</v>
       </c>
       <c r="M61" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1</v>
       </c>
       <c r="N61" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="O61" s="14" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
     </row>
@@ -3125,35 +3125,35 @@
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I62" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J62" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K62" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L62" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M62" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N62" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.59</v>
       </c>
       <c r="O62" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3170,35 +3170,35 @@
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I63" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J63" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K63" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L63" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M63" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N63" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.46666666666666701</v>
       </c>
       <c r="O63" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3215,35 +3215,35 @@
       </c>
       <c r="G64" s="5"/>
       <c r="H64" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I64" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J64" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K64" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L64" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M64" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N64" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.39</v>
       </c>
       <c r="O64" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3260,35 +3260,35 @@
       </c>
       <c r="G65" s="5"/>
       <c r="H65" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I65" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J65" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K65" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L65" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M65" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N65" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="O65" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3305,35 +3305,35 @@
       </c>
       <c r="G66" s="5"/>
       <c r="H66" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I66" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J66" s="5" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K66" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L66" s="5" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M66" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N66" s="5">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.6</v>
       </c>
       <c r="O66" s="14">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3350,35 +3350,35 @@
       </c>
       <c r="G67" s="5"/>
       <c r="H67" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="I67" s="7" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="J67" s="7" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="K67" s="7" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="L67" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="M67" s="7" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="N67" s="7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.3</v>
       </c>
       <c r="O67" s="15">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
@@ -3393,36 +3393,36 @@
         <v>41</v>
       </c>
       <c r="H68" s="17">
-        <f>CORREL(H36:H53, I36:I53)</f>
-        <v>0.35596093252347888</v>
+        <f>RSQ(I36:I53,H36:H53)</f>
+        <v>0.12670818548298476</v>
       </c>
       <c r="I68" s="19">
-        <f>H68*SQRT($I$6-2)/SQRT(1 - H68^2)</f>
-        <v>4.359716898313307</v>
+        <f>SQRT(H68)*SQRT($I$6-2)/SQRT(1 - H68)</f>
+        <v>4.3597168983133088</v>
       </c>
       <c r="J68" s="17">
-        <f>CORREL(J36:J40:J43:J44:J46:J50:J53:J55, K36:K40:K43:K44:K46:K50:K53:K55)</f>
-        <v>-4.4507937654163137E-16</v>
+        <f>RSQ(K36:K40:K43:K44:K46:K50:K53:K55,J36:J40:J43:J44:J46:J50:J53:J55)</f>
+        <v>1.9809565142268727E-31</v>
       </c>
       <c r="K68" s="19">
-        <f>J68*SQRT($I$6-2)/SQRT(1 - J68^2)</f>
-        <v>-5.0941663043497155E-15</v>
+        <f>SQRT(J68)*SQRT($I$6-2)/SQRT(1 - J68)</f>
+        <v>5.0941663043497155E-15</v>
       </c>
       <c r="L68" s="17">
-        <f>CORREL(L36:L38:L41:L41:L43:L50:L52:L61, M36:M38:M41:M41:M43:M50:M52:M61)</f>
-        <v>-0.17408885685848915</v>
+        <f>RSQ(M36:M38:M41:M41:M43:M50:M52:M61, L36:L38:L41:L41:L43:L50:L52:L61)</f>
+        <v>3.0306930082295527E-2</v>
       </c>
       <c r="M68" s="19">
-        <f>L68*SQRT($I$6-2)/SQRT(1 - L68^2)</f>
-        <v>-2.0234360137175056</v>
+        <f>SQRT(L68)*SQRT($I$6-2)/SQRT(1 - L68)</f>
+        <v>2.0234360137175056</v>
       </c>
       <c r="N68" s="17">
-        <f>CORREL(N36:N40:N43:N44:N46:N50:N53:N57:N62:N67, O36:O40:O43:O44:O46:O50:O53:O57:O62:O67)</f>
-        <v>0.35502314019254799</v>
+        <f>RSQ(O36:O40:O43:O44:O46:O50:O53:O57:O62:O67, N36:N40:N43:N44:N46:N50:N53:N57:N62:N67)</f>
+        <v>0.12604143007217758</v>
       </c>
       <c r="O68" s="20">
         <f>N68*SQRT($I$6-2)/SQRT(1 - N68^2)</f>
-        <v>4.346572081705621</v>
+        <v>1.4542074404232961</v>
       </c>
     </row>
     <row r="69" spans="1:15" ht="15.2" thickTop="1" x14ac:dyDescent="0.3">
@@ -3481,35 +3481,35 @@
       </c>
       <c r="G70" s="5"/>
       <c r="H70" s="2">
-        <f t="shared" ref="H70:H101" si="8">IF(AND(C2 &gt; 0, C70 &gt; 0), C2, "")</f>
+        <f t="shared" ref="H70:H101" si="9">IF(AND(C2 &gt; 0, C70 &gt; 0), C2, "")</f>
         <v>0.52142857142857102</v>
       </c>
       <c r="I70" s="3">
-        <f t="shared" ref="I70:I101" si="9">IF(AND(C2 &gt; 0, C70 &gt; 0), C70, "")</f>
+        <f t="shared" ref="I70:I101" si="10">IF(AND(C2 &gt; 0, C70 &gt; 0), C70, "")</f>
         <v>0.82352941176470595</v>
       </c>
       <c r="J70" s="3">
-        <f t="shared" ref="J70:J101" si="10">IF(AND(D2 &gt; 0, D70 &gt; 0), D2, "")</f>
+        <f t="shared" ref="J70:J101" si="11">IF(AND(D2 &gt; 0, D70 &gt; 0), D2, "")</f>
         <v>0.3</v>
       </c>
       <c r="K70" s="3">
-        <f t="shared" ref="K70:K101" si="11">IF(AND(D2 &gt; 0, D70 &gt; 0), D70, "")</f>
+        <f t="shared" ref="K70:K101" si="12">IF(AND(D2 &gt; 0, D70 &gt; 0), D70, "")</f>
         <v>0.64705882352941202</v>
       </c>
       <c r="L70" s="3">
-        <f t="shared" ref="L70:L101" si="12">IF(AND(E2 &gt; 0, E70 &gt; 0), E2, "")</f>
+        <f t="shared" ref="L70:L101" si="13">IF(AND(E2 &gt; 0, E70 &gt; 0), E2, "")</f>
         <v>0.65</v>
       </c>
       <c r="M70" s="3">
-        <f t="shared" ref="M70:M101" si="13">IF(AND(E2 &gt; 0, E70 &gt; 0), E70, "")</f>
+        <f t="shared" ref="M70:M101" si="14">IF(AND(E2 &gt; 0, E70 &gt; 0), E70, "")</f>
         <v>1</v>
       </c>
       <c r="N70" s="3">
-        <f t="shared" ref="N70:N101" si="14">IF(AND(F2 &gt; 0, F70 &gt; 0), F2, "")</f>
+        <f t="shared" ref="N70:N101" si="15">IF(AND(F2 &gt; 0, F70 &gt; 0), F2, "")</f>
         <v>0.65</v>
       </c>
       <c r="O70" s="13">
-        <f t="shared" ref="O70:O101" si="15">IF(AND(F2 &gt; 0, F70 &gt; 0), F70, "")</f>
+        <f t="shared" ref="O70:O101" si="16">IF(AND(F2 &gt; 0, F70 &gt; 0), F70, "")</f>
         <v>0.70588235294117696</v>
       </c>
     </row>
@@ -3532,35 +3532,35 @@
       </c>
       <c r="G71" s="5"/>
       <c r="H71" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I71" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.125E-2</v>
       </c>
       <c r="J71" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K71" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6.25E-2</v>
       </c>
       <c r="L71" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M71" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N71" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="O71" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -3583,35 +3583,35 @@
       </c>
       <c r="G72" s="5"/>
       <c r="H72" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I72" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>5.1282051282051301E-2</v>
       </c>
       <c r="J72" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7.69230769230769E-2</v>
       </c>
       <c r="L72" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M72" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.97435897435897401</v>
       </c>
       <c r="N72" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="O72" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.15384615384615399</v>
       </c>
     </row>
@@ -3632,35 +3632,35 @@
       </c>
       <c r="G73" s="5"/>
       <c r="H73" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.53888888888888897</v>
       </c>
       <c r="I73" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="J73" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K73" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.66666666666666696</v>
       </c>
       <c r="L73" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M73" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N73" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.6</v>
       </c>
       <c r="O73" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.3333333333333301E-2</v>
       </c>
     </row>
@@ -3681,35 +3681,35 @@
       </c>
       <c r="G74" s="5"/>
       <c r="H74" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.65</v>
       </c>
       <c r="I74" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J74" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K74" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.25</v>
       </c>
       <c r="L74" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M74" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N74" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.39785714285714302</v>
       </c>
       <c r="O74" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.875</v>
       </c>
     </row>
@@ -3728,35 +3728,35 @@
       <c r="F75" s="14"/>
       <c r="G75" s="5"/>
       <c r="H75" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I75" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>6.6666666666666693E-2</v>
       </c>
       <c r="J75" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K75" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L75" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M75" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N75" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O75" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -3773,35 +3773,35 @@
       <c r="F76" s="14"/>
       <c r="G76" s="5"/>
       <c r="H76" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I76" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>1</v>
       </c>
       <c r="J76" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K76" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L76" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M76" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N76" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O76" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -3824,35 +3824,35 @@
       </c>
       <c r="G77" s="5"/>
       <c r="H77" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.50384615384615405</v>
       </c>
       <c r="I77" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.76470588235294101</v>
       </c>
       <c r="J77" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K77" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.47058823529411797</v>
       </c>
       <c r="L77" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M77" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.94117647058823495</v>
       </c>
       <c r="N77" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="O77" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.35294117647058798</v>
       </c>
     </row>
@@ -3875,35 +3875,35 @@
       </c>
       <c r="G78" s="5"/>
       <c r="H78" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.45</v>
       </c>
       <c r="I78" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>3.7037037037037E-2</v>
       </c>
       <c r="J78" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K78" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.38888888888888901</v>
       </c>
       <c r="L78" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.64999999999999902</v>
       </c>
       <c r="M78" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N78" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.49199999999999999</v>
       </c>
       <c r="O78" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.46296296296296302</v>
       </c>
     </row>
@@ -3922,35 +3922,35 @@
       <c r="F79" s="14"/>
       <c r="G79" s="5"/>
       <c r="H79" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.45</v>
       </c>
       <c r="I79" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J79" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K79" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L79" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M79" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="N79" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O79" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -3973,35 +3973,35 @@
       </c>
       <c r="G80" s="5"/>
       <c r="H80" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I80" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.5</v>
       </c>
       <c r="J80" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K80" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="L80" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="M80" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N80" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="O80" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4024,35 +4024,35 @@
       </c>
       <c r="G81" s="5"/>
       <c r="H81" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.45</v>
       </c>
       <c r="I81" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.15384615384615399</v>
       </c>
       <c r="J81" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K81" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.38461538461538503</v>
       </c>
       <c r="L81" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M81" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N81" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="O81" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.230769230769231</v>
       </c>
     </row>
@@ -4075,35 +4075,35 @@
       </c>
       <c r="G82" s="5"/>
       <c r="H82" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.45</v>
       </c>
       <c r="I82" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.53333333333333299</v>
       </c>
       <c r="J82" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K82" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.2</v>
       </c>
       <c r="L82" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M82" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
       <c r="N82" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.372</v>
       </c>
       <c r="O82" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.33333333333333298</v>
       </c>
     </row>
@@ -4126,35 +4126,35 @@
       </c>
       <c r="G83" s="5"/>
       <c r="H83" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.486363636363636</v>
       </c>
       <c r="I83" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.6875</v>
       </c>
       <c r="J83" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K83" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.3125</v>
       </c>
       <c r="L83" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M83" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.875</v>
       </c>
       <c r="N83" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="O83" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.375</v>
       </c>
     </row>
@@ -4177,35 +4177,35 @@
       </c>
       <c r="G84" s="5"/>
       <c r="H84" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.49166666666666697</v>
       </c>
       <c r="I84" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.8</v>
       </c>
       <c r="J84" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K84" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.46666666666666701</v>
       </c>
       <c r="L84" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M84" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.8</v>
       </c>
       <c r="N84" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="O84" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.2</v>
       </c>
     </row>
@@ -4222,35 +4222,35 @@
       <c r="F85" s="14"/>
       <c r="G85" s="5"/>
       <c r="H85" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.5</v>
       </c>
       <c r="I85" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.14285714285714299</v>
       </c>
       <c r="J85" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K85" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L85" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M85" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N85" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O85" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -4269,35 +4269,35 @@
       <c r="F86" s="14"/>
       <c r="G86" s="5"/>
       <c r="H86" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I86" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.22222222222222199</v>
       </c>
       <c r="J86" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K86" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L86" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M86" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N86" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O86" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -4320,35 +4320,35 @@
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="4">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="I87" s="5">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.75</v>
       </c>
       <c r="J87" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K87" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="L87" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M87" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N87" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="O87" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
     </row>
@@ -4369,35 +4369,35 @@
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I88" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J88" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K88" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.36</v>
       </c>
       <c r="L88" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M88" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.64</v>
       </c>
       <c r="N88" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="O88" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.08</v>
       </c>
     </row>
@@ -4418,35 +4418,35 @@
       </c>
       <c r="G89" s="5"/>
       <c r="H89" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I89" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J89" s="5">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.3</v>
       </c>
       <c r="K89" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.41666666666666702</v>
       </c>
       <c r="L89" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M89" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.66666666666666696</v>
       </c>
       <c r="N89" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="O89" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8.3333333333333301E-2</v>
       </c>
     </row>
@@ -4465,35 +4465,35 @@
       </c>
       <c r="G90" s="5"/>
       <c r="H90" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I90" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J90" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K90" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L90" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M90" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.157894736842105</v>
       </c>
       <c r="N90" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.5</v>
       </c>
       <c r="O90" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.105263157894737</v>
       </c>
     </row>
@@ -4512,35 +4512,35 @@
       </c>
       <c r="G91" s="5"/>
       <c r="H91" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I91" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J91" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K91" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L91" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M91" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.11111111111111099</v>
       </c>
       <c r="N91" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="O91" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.33333333333333298</v>
       </c>
     </row>
@@ -4557,35 +4557,35 @@
       <c r="F92" s="14"/>
       <c r="G92" s="5"/>
       <c r="H92" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I92" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J92" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K92" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L92" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M92" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="N92" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O92" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -4602,35 +4602,35 @@
       <c r="F93" s="14"/>
       <c r="G93" s="5"/>
       <c r="H93" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I93" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J93" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K93" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L93" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M93" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>6.25E-2</v>
       </c>
       <c r="N93" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O93" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -4647,35 +4647,35 @@
       <c r="F94" s="14"/>
       <c r="G94" s="5"/>
       <c r="H94" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I94" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J94" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K94" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L94" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M94" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3.4482758620689703E-2</v>
       </c>
       <c r="N94" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O94" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -4692,35 +4692,35 @@
       <c r="F95" s="14"/>
       <c r="G95" s="5"/>
       <c r="H95" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I95" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J95" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K95" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L95" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.65</v>
       </c>
       <c r="M95" s="5">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.5</v>
       </c>
       <c r="N95" s="5" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="O95" s="14" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
     </row>
@@ -4737,35 +4737,35 @@
       </c>
       <c r="G96" s="5"/>
       <c r="H96" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I96" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J96" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K96" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L96" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M96" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N96" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.59</v>
       </c>
       <c r="O96" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>1</v>
       </c>
     </row>
@@ -4782,35 +4782,35 @@
       </c>
       <c r="G97" s="5"/>
       <c r="H97" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I97" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J97" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K97" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L97" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M97" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N97" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.46666666666666701</v>
       </c>
       <c r="O97" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.9</v>
       </c>
     </row>
@@ -4827,35 +4827,35 @@
       </c>
       <c r="G98" s="5"/>
       <c r="H98" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I98" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J98" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K98" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L98" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M98" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N98" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.39</v>
       </c>
       <c r="O98" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
@@ -4872,35 +4872,35 @@
       </c>
       <c r="G99" s="5"/>
       <c r="H99" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I99" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J99" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K99" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L99" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M99" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N99" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="O99" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.25E-2</v>
       </c>
     </row>
@@ -4917,35 +4917,35 @@
       </c>
       <c r="G100" s="5"/>
       <c r="H100" s="4" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I100" s="5" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J100" s="5" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K100" s="5" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L100" s="5" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M100" s="5" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N100" s="5">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.6</v>
       </c>
       <c r="O100" s="14">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.25</v>
       </c>
     </row>
@@ -4962,35 +4962,35 @@
       </c>
       <c r="G101" s="5"/>
       <c r="H101" s="6" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="I101" s="7" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="J101" s="7" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="K101" s="7" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="L101" s="7" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="M101" s="7" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="N101" s="7">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
       <c r="O101" s="15">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.75</v>
       </c>
     </row>
@@ -5005,36 +5005,36 @@
         <v>41</v>
       </c>
       <c r="H102" s="17">
-        <f>CORREL(H70:H87, I70:I87)</f>
-        <v>0.20873106222366639</v>
+        <f>RSQ(I70:I87,H70:H87)</f>
+        <v>4.356865633702009E-2</v>
       </c>
       <c r="I102" s="19">
-        <f>H102*SQRT($I$6-2)/SQRT(1 - H102^2)</f>
+        <f>SQRT(H102)*SQRT($I$6-2)/SQRT(1 - H102)</f>
         <v>2.4428445465133755</v>
       </c>
       <c r="J102" s="17">
-        <f>CORREL(J70:J74:J77:J78:J80:J84:J87:J89, K70:K74:K77:K78:K80:K84:K87:K89)</f>
-        <v>-1.5016937027077611E-16</v>
+        <f>RSQ(K70:K74:K77:K78:K80:K84:K87:K89,J70:J74:J77:J78:J80:J84:J87:J89)</f>
+        <v>2.2550839767521455E-32</v>
       </c>
       <c r="K102" s="19">
-        <f>J102*SQRT($I$6-2)/SQRT(1 - J102^2)</f>
-        <v>-1.7187670026927184E-15</v>
+        <f>SQRT(J102)*SQRT($I$6-2)/SQRT(1 - J102)</f>
+        <v>1.7187670026927184E-15</v>
       </c>
       <c r="L102" s="17">
-        <f>CORREL(L70:L72:L75:L75:L77:L84:L86:L95, M70:M72:M75:M75:M77:M84:M86:M95)</f>
-        <v>-0.17300821115871487</v>
+        <f>RSQ(M70:M72:M75:M75:M77:M84:M86:M95, L70:L72:L75:L75:L77:L84:L86:L95)</f>
+        <v>2.9931841128338472E-2</v>
       </c>
       <c r="M102" s="19">
-        <f>L102*SQRT($I$6-2)/SQRT(1 - L102^2)</f>
-        <v>-2.0104868584448918</v>
+        <f>SQRT(L102)*SQRT($I$6-2)/SQRT(1 - L102)</f>
+        <v>2.0104868584448918</v>
       </c>
       <c r="N102" s="17">
-        <f>CORREL(N70:N74:N77:N78:N80:N84:N87:N91:N96:N101, O70:O74:O77:O78:O80:O84:O87:O91:O96:O101)</f>
-        <v>4.7675429993026937E-2</v>
+        <f>RSQ(O70:O74:O77:O78:O80:O84:O87:O91:O96:O101, N70:N74:N77:N78:N80:N84:N87:N91:N96:N101)</f>
+        <v>2.2729466250200133E-3</v>
       </c>
       <c r="O102" s="20">
         <f>N102*SQRT($I$6-2)/SQRT(1 - N102^2)</f>
-        <v>0.54629143612913378</v>
+        <v>2.601513039868087E-2</v>
       </c>
     </row>
     <row r="103" spans="1:15" ht="15.2" thickTop="1" x14ac:dyDescent="0.3">
@@ -5093,35 +5093,35 @@
       </c>
       <c r="G104" s="5"/>
       <c r="H104" s="2">
-        <f t="shared" ref="H104:H135" si="16">IF(AND(C2 &gt; 0, C104 &gt; 0), C2, "")</f>
+        <f t="shared" ref="H104:H135" si="17">IF(AND(C2 &gt; 0, C104 &gt; 0), C2, "")</f>
         <v>0.52142857142857102</v>
       </c>
       <c r="I104" s="3">
-        <f t="shared" ref="I104:I135" si="17">IF(AND(C2 &gt; 0, C104 &gt; 0), C104, "")</f>
+        <f t="shared" ref="I104:I135" si="18">IF(AND(C2 &gt; 0, C104 &gt; 0), C104, "")</f>
         <v>0.90322580645161299</v>
       </c>
       <c r="J104" s="3">
-        <f t="shared" ref="J104:J135" si="18">IF(AND(D2 &gt; 0, D104 &gt; 0), D2, "")</f>
+        <f t="shared" ref="J104:J135" si="19">IF(AND(D2 &gt; 0, D104 &gt; 0), D2, "")</f>
         <v>0.3</v>
       </c>
       <c r="K104" s="3">
-        <f t="shared" ref="K104:K135" si="19">IF(AND(D2 &gt; 0, D104 &gt; 0), D104, "")</f>
+        <f t="shared" ref="K104:K135" si="20">IF(AND(D2 &gt; 0, D104 &gt; 0), D104, "")</f>
         <v>0.78571428571428603</v>
       </c>
       <c r="L104" s="3">
-        <f t="shared" ref="L104:L135" si="20">IF(AND(E36 &gt; 0, E104 &gt; 0), E36, "")</f>
+        <f t="shared" ref="L104:L135" si="21">IF(AND(E36 &gt; 0, E104 &gt; 0), E36, "")</f>
         <v>0.94444444444444398</v>
       </c>
       <c r="M104" s="3">
-        <f t="shared" ref="M104:M135" si="21">IF(AND(E2 &gt; 0, E104 &gt; 0), E104, "")</f>
+        <f t="shared" ref="M104:M135" si="22">IF(AND(E2 &gt; 0, E104 &gt; 0), E104, "")</f>
         <v>0.97142857142857097</v>
       </c>
       <c r="N104" s="3">
-        <f t="shared" ref="N104:N135" si="22">IF(AND(F2 &gt; 0, F104 &gt; 0), F2, "")</f>
+        <f t="shared" ref="N104:N135" si="23">IF(AND(F2 &gt; 0, F104 &gt; 0), F2, "")</f>
         <v>0.65</v>
       </c>
       <c r="O104" s="13">
-        <f t="shared" ref="O104:O135" si="23">IF(AND(F2 &gt; 0, F104 &gt; 0), F104, "")</f>
+        <f t="shared" ref="O104:O135" si="24">IF(AND(F2 &gt; 0, F104 &gt; 0), F104, "")</f>
         <v>0.82758620689655205</v>
       </c>
     </row>
@@ -5144,35 +5144,35 @@
       </c>
       <c r="G105" s="5"/>
       <c r="H105" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I105" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>6.0606060606060601E-2</v>
       </c>
       <c r="J105" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K105" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.11764705882352899</v>
       </c>
       <c r="L105" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="M105" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.66666666666666696</v>
       </c>
       <c r="N105" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="O105" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.11764705882352899</v>
       </c>
     </row>
@@ -5195,35 +5195,35 @@
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="I106" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>9.7560975609756101E-2</v>
       </c>
       <c r="J106" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K106" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.14285714285714299</v>
       </c>
       <c r="L106" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.51351351351351304</v>
       </c>
       <c r="M106" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.67256637168141598</v>
       </c>
       <c r="N106" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="O106" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.266666666666667</v>
       </c>
     </row>
@@ -5244,35 +5244,35 @@
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.53888888888888897</v>
       </c>
       <c r="I107" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.85714285714285698</v>
       </c>
       <c r="J107" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K107" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.72727272727272696</v>
       </c>
       <c r="L107" s="5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M107" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N107" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.6</v>
       </c>
       <c r="O107" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.15384615384615399</v>
       </c>
     </row>
@@ -5293,35 +5293,35 @@
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.65</v>
       </c>
       <c r="I108" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J108" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K108" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.4</v>
       </c>
       <c r="L108" s="5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M108" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N108" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.39785714285714302</v>
       </c>
       <c r="O108" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.93333333333333302</v>
       </c>
     </row>
@@ -5340,35 +5340,35 @@
       <c r="F109" s="14"/>
       <c r="G109" s="5"/>
       <c r="H109" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I109" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.125</v>
       </c>
       <c r="J109" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K109" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L109" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M109" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="N109" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O109" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -5385,35 +5385,35 @@
       <c r="F110" s="14"/>
       <c r="G110" s="5"/>
       <c r="H110" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="I110" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
       <c r="J110" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K110" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L110" s="5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M110" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N110" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O110" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -5436,35 +5436,35 @@
       </c>
       <c r="G111" s="5"/>
       <c r="H111" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.50384615384615405</v>
       </c>
       <c r="I111" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.83870967741935498</v>
       </c>
       <c r="J111" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K111" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.64</v>
       </c>
       <c r="L111" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.88888888888888895</v>
       </c>
       <c r="M111" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.91428571428571404</v>
       </c>
       <c r="N111" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="O111" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.52173913043478304</v>
       </c>
     </row>
@@ -5487,35 +5487,35 @@
       </c>
       <c r="G112" s="5"/>
       <c r="H112" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.45</v>
       </c>
       <c r="I112" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>7.1428571428571397E-2</v>
       </c>
       <c r="J112" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K112" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="L112" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.98181818181818203</v>
       </c>
       <c r="M112" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.990825688073394</v>
       </c>
       <c r="N112" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.49199999999999999</v>
       </c>
       <c r="O112" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.632911392405063</v>
       </c>
     </row>
@@ -5534,35 +5534,35 @@
       <c r="F113" s="14"/>
       <c r="G113" s="5"/>
       <c r="H113" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.45</v>
       </c>
       <c r="I113" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="J113" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K113" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L113" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="M113" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.5</v>
       </c>
       <c r="N113" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O113" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -5585,35 +5585,35 @@
       </c>
       <c r="G114" s="5"/>
       <c r="H114" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I114" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.66666666666666696</v>
       </c>
       <c r="J114" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K114" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.66666666666666696</v>
       </c>
       <c r="L114" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M114" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="N114" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="O114" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.66666666666666696</v>
       </c>
     </row>
@@ -5636,35 +5636,35 @@
       </c>
       <c r="G115" s="5"/>
       <c r="H115" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.45</v>
       </c>
       <c r="I115" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.266666666666667</v>
       </c>
       <c r="J115" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K115" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.55555555555555602</v>
       </c>
       <c r="L115" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.8125</v>
       </c>
       <c r="M115" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.89655172413793105</v>
       </c>
       <c r="N115" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="O115" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.375</v>
       </c>
     </row>
@@ -5687,35 +5687,35 @@
       </c>
       <c r="G116" s="5"/>
       <c r="H116" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.45</v>
       </c>
       <c r="I116" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.66666666666666696</v>
       </c>
       <c r="J116" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K116" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.33333333333333298</v>
       </c>
       <c r="L116" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.75</v>
       </c>
       <c r="M116" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.77419354838709697</v>
       </c>
       <c r="N116" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.372</v>
       </c>
       <c r="O116" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.476190476190476</v>
       </c>
     </row>
@@ -5738,35 +5738,35 @@
       </c>
       <c r="G117" s="5"/>
       <c r="H117" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.486363636363636</v>
       </c>
       <c r="I117" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.81481481481481499</v>
       </c>
       <c r="J117" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K117" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.476190476190476</v>
       </c>
       <c r="L117" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.77777777777777801</v>
       </c>
       <c r="M117" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.82352941176470595</v>
       </c>
       <c r="N117" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.34499999999999997</v>
       </c>
       <c r="O117" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.52173913043478204</v>
       </c>
     </row>
@@ -5789,35 +5789,35 @@
       </c>
       <c r="G118" s="5"/>
       <c r="H118" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.49166666666666697</v>
       </c>
       <c r="I118" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.88888888888888895</v>
       </c>
       <c r="J118" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K118" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.63636363636363602</v>
       </c>
       <c r="L118" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M118" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.88888888888888895</v>
       </c>
       <c r="N118" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="O118" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.33333333333333298</v>
       </c>
     </row>
@@ -5834,35 +5834,35 @@
       <c r="F119" s="14"/>
       <c r="G119" s="5"/>
       <c r="H119" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="I119" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.25</v>
       </c>
       <c r="J119" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K119" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L119" s="5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M119" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N119" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O119" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -5881,35 +5881,35 @@
       <c r="F120" s="14"/>
       <c r="G120" s="5"/>
       <c r="H120" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.55000000000000004</v>
       </c>
       <c r="I120" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.36363636363636398</v>
       </c>
       <c r="J120" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K120" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L120" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M120" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1</v>
       </c>
       <c r="N120" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O120" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -5932,35 +5932,35 @@
       </c>
       <c r="G121" s="5"/>
       <c r="H121" s="4">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0.47499999999999998</v>
       </c>
       <c r="I121" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.85714285714285698</v>
       </c>
       <c r="J121" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K121" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.66666666666666696</v>
       </c>
       <c r="L121" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.94117647058823495</v>
       </c>
       <c r="M121" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.96969696969696995</v>
       </c>
       <c r="N121" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="O121" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.66666666666666696</v>
       </c>
     </row>
@@ -5981,35 +5981,35 @@
       </c>
       <c r="G122" s="5"/>
       <c r="H122" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I122" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J122" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K122" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.52941176470588203</v>
       </c>
       <c r="L122" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M122" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.78048780487804903</v>
       </c>
       <c r="N122" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="O122" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.148148148148148</v>
       </c>
     </row>
@@ -6030,35 +6030,35 @@
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I123" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J123" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.3</v>
       </c>
       <c r="K123" s="5">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.58823529411764697</v>
       </c>
       <c r="L123" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M123" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.8</v>
       </c>
       <c r="N123" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="O123" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.15384615384615399</v>
       </c>
     </row>
@@ -6077,35 +6077,35 @@
       </c>
       <c r="G124" s="5"/>
       <c r="H124" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I124" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J124" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K124" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L124" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M124" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.27272727272727298</v>
       </c>
       <c r="N124" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.5</v>
       </c>
       <c r="O124" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.19047619047618999</v>
       </c>
     </row>
@@ -6124,35 +6124,35 @@
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I125" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J125" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K125" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L125" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M125" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.2</v>
       </c>
       <c r="N125" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="O125" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.4</v>
       </c>
     </row>
@@ -6169,35 +6169,35 @@
       <c r="F126" s="14"/>
       <c r="G126" s="5"/>
       <c r="H126" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I126" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J126" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K126" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L126" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.91666666666666696</v>
       </c>
       <c r="M126" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.95652173913043503</v>
       </c>
       <c r="N126" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O126" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -6214,35 +6214,35 @@
       <c r="F127" s="14"/>
       <c r="G127" s="5"/>
       <c r="H127" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I127" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J127" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K127" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L127" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="M127" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.11111111111111099</v>
       </c>
       <c r="N127" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O127" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -6259,35 +6259,35 @@
       <c r="F128" s="14"/>
       <c r="G128" s="5"/>
       <c r="H128" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I128" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J128" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K128" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L128" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.5</v>
       </c>
       <c r="M128" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.4516129032258104E-2</v>
       </c>
       <c r="N128" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O128" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -6304,35 +6304,35 @@
       <c r="F129" s="14"/>
       <c r="G129" s="5"/>
       <c r="H129" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I129" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J129" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K129" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L129" s="5">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="M129" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.66666666666666696</v>
       </c>
       <c r="N129" s="5" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="O129" s="14" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
     </row>
@@ -6349,35 +6349,35 @@
       </c>
       <c r="G130" s="5"/>
       <c r="H130" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I130" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J130" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K130" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L130" s="5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M130" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N130" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.59</v>
       </c>
       <c r="O130" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1</v>
       </c>
     </row>
@@ -6394,35 +6394,35 @@
       </c>
       <c r="G131" s="5"/>
       <c r="H131" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I131" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J131" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K131" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L131" s="5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M131" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N131" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.46666666666666701</v>
       </c>
       <c r="O131" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.94736842105263197</v>
       </c>
     </row>
@@ -6439,35 +6439,35 @@
       </c>
       <c r="G132" s="5"/>
       <c r="H132" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I132" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J132" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K132" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L132" s="5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M132" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N132" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.39</v>
       </c>
       <c r="O132" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.133333333333333</v>
       </c>
     </row>
@@ -6484,35 +6484,35 @@
       </c>
       <c r="G133" s="5"/>
       <c r="H133" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I133" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J133" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K133" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L133" s="5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M133" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N133" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="O133" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.11764705882352899</v>
       </c>
     </row>
@@ -6529,35 +6529,35 @@
       </c>
       <c r="G134" s="5"/>
       <c r="H134" s="4" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I134" s="5" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J134" s="5" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K134" s="5" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L134" s="5" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M134" s="5" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N134" s="5">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.6</v>
       </c>
       <c r="O134" s="14">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.4</v>
       </c>
     </row>
@@ -6574,35 +6574,35 @@
       </c>
       <c r="G135" s="5"/>
       <c r="H135" s="6" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="I135" s="7" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J135" s="7" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="K135" s="7" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="L135" s="7" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="M135" s="7" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="N135" s="7">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0.3</v>
       </c>
       <c r="O135" s="15">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0.85714285714285698</v>
       </c>
     </row>
@@ -6617,36 +6617,36 @@
         <v>41</v>
       </c>
       <c r="H136" s="17">
-        <f>CORREL(H104:H121, I104:I121)</f>
-        <v>0.18770379431374018</v>
+        <f>RSQ(I104:I121,H104:H121)</f>
+        <v>3.5232714399774878E-2</v>
       </c>
       <c r="I136" s="19">
-        <f>H136*SQRT($I$6-2)/SQRT(1 - H136^2)</f>
+        <f>SQRT(H136)*SQRT($I$6-2)/SQRT(1 - H136)</f>
         <v>2.1872449136695624</v>
       </c>
       <c r="J136" s="17">
-        <f>CORREL(J104:J108:J111:J112:J114:J118:J121:J123, K104:K108:K111:K112:K114:K118:K121:K123)</f>
+        <f>RSQ(K104:K108:K111:K112:K114:K118:K121:K123,J104:J108:J111:J112:J114:J118:J121:J123)</f>
         <v>0</v>
       </c>
       <c r="K136" s="19">
-        <f>J136*SQRT($I$6-2)/SQRT(1 - J136^2)</f>
+        <f>SQRT(J136)*SQRT($I$6-2)/SQRT(1 - J136)</f>
         <v>0</v>
       </c>
       <c r="L136" s="17">
-        <f>CORREL(L104:L106:L109:L109:L111:L118:L120:L129, M104:M106:M109:M109:M111:M118:M120:M129)</f>
-        <v>0.51085656162510373</v>
+        <f>RSQ(M104:M106:M109:M109:M111:M118:M120:M129, L104:L106:L109:L109:L111:L118:L120:L129)</f>
+        <v>0.26097442655542341</v>
       </c>
       <c r="M136" s="19">
-        <f>L136*SQRT($I$6-2)/SQRT(1 - L136^2)</f>
+        <f>SQRT(L136)*SQRT($I$6-2)/SQRT(1 - L136)</f>
         <v>6.8015029422336006</v>
       </c>
       <c r="N136" s="17">
-        <f>CORREL(N104:N108:N111:N112:N114:N118:N121:N125:N130:N135, O104:O108:O111:O112:O114:O118:O121:O125:O130:O135)</f>
-        <v>1.7431280712389828E-2</v>
+        <f>RSQ(O104:O108:O111:O112:O114:O118:O121:O125:O130:O135, N104:N108:N111:N112:N114:N118:N121:N125:N130:N135)</f>
+        <v>3.0384954727413375E-4</v>
       </c>
       <c r="O136" s="20">
         <f>N136*SQRT($I$6-2)/SQRT(1 - N136^2)</f>
-        <v>0.19954044423286271</v>
+        <v>3.4777171856305356E-3</v>
       </c>
     </row>
     <row r="137" spans="1:15" ht="15.2" thickTop="1" x14ac:dyDescent="0.3"/>
